--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() or slot.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -1250,11 +1250,11 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-slot)
 </t>
   </si>
   <si>
-    <t>The slots that this appointment is filling</t>
+    <t>Slot this appointment is booked for</t>
   </si>
   <si>
     <t>The slots from the participants' schedules that will be filled by the appointment.</t>
@@ -1429,7 +1429,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-patient|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
 </t>
   </si>
   <si>
@@ -1842,7 +1842,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="247.83984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T11:11:24-03:00</t>
+    <t>2025-10-30T18:43:23-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() or slot.exists()}</t>
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -870,6 +870,10 @@
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() implies slot.empty()}</t>
   </si>
   <si>
     <t>.code</t>
@@ -1250,11 +1254,11 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-slot)
+    <t xml:space="preserve">Reference(Slot|4.0.1)
 </t>
   </si>
   <si>
-    <t>Slot this appointment is booked for</t>
+    <t>The slots that this appointment is filling</t>
   </si>
   <si>
     <t>The slots from the participants' schedules that will be filled by the appointment.</t>
@@ -1429,7 +1433,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-patient|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcare-service|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1842,7 +1846,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="247.83984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5116,30 +5120,30 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5251,10 +5255,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5368,10 +5372,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5394,19 +5398,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5455,7 +5459,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5473,7 +5477,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5482,15 +5486,15 @@
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5602,10 +5606,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5719,10 +5723,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5748,23 +5752,23 @@
         <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -5806,7 +5810,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5824,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5833,15 +5837,15 @@
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5867,13 +5871,13 @@
         <v>176</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5923,7 +5927,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5941,7 +5945,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5950,15 +5954,15 @@
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5984,14 +5988,14 @@
         <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6040,7 +6044,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6058,7 +6062,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6067,15 +6071,15 @@
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6101,14 +6105,14 @@
         <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6157,7 +6161,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6175,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6184,15 +6188,15 @@
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6215,19 +6219,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6276,7 +6280,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6294,7 +6298,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6303,15 +6307,15 @@
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6337,16 +6341,16 @@
         <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6395,7 +6399,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6413,7 +6417,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6422,15 +6426,15 @@
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6456,10 +6460,10 @@
         <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6489,10 +6493,10 @@
         <v>113</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6510,7 +6514,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6525,10 +6529,10 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6537,15 +6541,15 @@
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6568,13 +6572,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6625,7 +6629,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6640,10 +6644,10 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6657,10 +6661,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6683,16 +6687,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6742,7 +6746,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6757,27 +6761,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>272</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6803,10 +6807,10 @@
         <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6857,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6875,24 +6879,24 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6915,13 +6919,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6972,7 +6976,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6987,16 +6991,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7004,10 +7008,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7030,13 +7034,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7087,7 +7091,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7102,27 +7106,27 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7145,13 +7149,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7202,7 +7206,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7217,27 +7221,27 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7260,13 +7264,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7317,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7332,13 +7336,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7349,10 +7353,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7375,13 +7379,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7432,7 +7436,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7450,7 +7454,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7464,10 +7468,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7490,16 +7494,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7549,7 +7553,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7564,13 +7568,13 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7581,10 +7585,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7610,13 +7614,13 @@
         <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7666,7 +7670,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7681,27 +7685,27 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7727,10 +7731,10 @@
         <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7781,7 +7785,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7799,28 +7803,28 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7839,13 +7843,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7896,7 +7900,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7911,10 +7915,10 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7928,10 +7932,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7954,13 +7958,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8011,7 +8015,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>89</v>
@@ -8023,30 +8027,30 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8158,10 +8162,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8275,14 +8279,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8304,10 +8308,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>163</v>
@@ -8362,7 +8366,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8394,10 +8398,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8423,13 +8427,13 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8458,10 +8462,10 @@
         <v>202</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8479,7 +8483,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8497,7 +8501,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>180</v>
@@ -8506,15 +8510,15 @@
         <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8537,13 +8541,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8594,7 +8598,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8612,24 +8616,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8655,10 +8659,10 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8688,10 +8692,10 @@
         <v>191</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8709,7 +8713,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8727,10 +8731,10 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8741,10 +8745,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8770,10 +8774,10 @@
         <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8804,7 +8808,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8822,7 +8826,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -8840,24 +8844,24 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8883,10 +8887,10 @@
         <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8937,7 +8941,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8969,10 +8973,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8998,13 +9002,13 @@
         <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9054,7 +9058,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9069,10 +9073,10 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9081,7 +9085,7 @@
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.15</t>
+    <t>0.9.20</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T18:43:23-03:00</t>
+    <t>2025-11-18T19:57:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -763,7 +763,7 @@
     <t>Appointment.status</t>
   </si>
   <si>
-    <t>Status of the appointment (proposed, pending, booked, arrived, fulfilled, cancelled, noshow, entered-in-error, checked-in, waitlist)</t>
+    <t>Status of the appointment (pending, booked, cancelled, fulfilled, entered-in-error)</t>
   </si>
   <si>
     <t>The overall status of the Appointment. Each of the participants has their own participation status which indicates their involvement in the process, however this status indicates the shared status.</t>
@@ -773,7 +773,7 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/appointmentstatus</t>
+    <t>https://fhir.medmehealth.com/pharmacy-services/ValueSet/medme-appointment-status</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -863,13 +863,13 @@
     <t>Appointment.appointmentType</t>
   </si>
   <si>
-    <t>Type of appointment (e.g., routine, urgent, follow-up)</t>
+    <t>Type of appointment (WALKIN or ROUTINE)</t>
   </si>
   <si>
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+    <t>https://fhir.medmehealth.com/pharmacy-services/ValueSet/medme-appointment-type</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1254,11 +1254,11 @@
     <t>Appointment.slot</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Slot|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-slot)
 </t>
   </si>
   <si>
-    <t>The slots that this appointment is filling</t>
+    <t>The slot fulfilled by this appointment, only required for non-WALKIN/INSTANT appointments originating from dynamic slots.</t>
   </si>
   <si>
     <t>The slots from the participants' schedules that will be filled by the appointment.</t>
@@ -1433,7 +1433,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Device|4.0.1|HealthcareService|4.0.1|Location|4.0.1)
+    <t xml:space="preserve">Reference(https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-patient|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-healthcareservice|https://fhir.medmehealth.com/pharmacy-services/StructureDefinition/medme-pharmacy-location)
 </t>
   </si>
   <si>
@@ -1846,7 +1846,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="247.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1861,7 +1861,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.0859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.0390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>89</v>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>89</v>
@@ -5086,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
@@ -7367,7 +7367,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1836,17 +1836,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.78125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="247.2734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="245.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1855,27 +1855,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.9609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1836,17 +1836,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.78125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="245.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="247.2734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1855,27 +1855,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.9609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.0390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -873,7 +873,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'https://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() implies slot.empty()}</t>
+walkin-no-slot:If appointment type is WALKIN, slot must not be present {appointmentType.coding.where(system = 'http://terminology.hl7.org/CodeSystem/v2-0276' and code = 'WALKIN').exists() implies slot.empty()}</t>
   </si>
   <si>
     <t>.code</t>
@@ -940,7 +940,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/v2-0276</t>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0276</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1485,7 +1485,7 @@
     <t>Participation status of the actor.</t>
   </si>
   <si>
-    <t>https://hl7.org/fhir/ValueSet/participationstatus</t>
+    <t>http://hl7.org/fhir/ValueSet/participationstatus</t>
   </si>
   <si>
     <t>(performer | reusableDevice | subject | location).statusCode</t>
@@ -1836,17 +1836,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.80859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.78125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="247.2734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="245.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1855,27 +1855,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.0390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.94140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.9609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="94.375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="133.0625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.4921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.44921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="90.15234375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="129.51171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/site/StructureDefinition-medme-pharmacy-appointment.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-appointment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -773,7 +773,10 @@
 This element is labeled as a modifier because the status contains the code entered-in-error that mark the Appointment as not currently valid.</t>
   </si>
   <si>
-    <t>https://fhir.medmehealth.com/pharmacy-services/ValueSet/medme-appointment-status</t>
+    <t>The free/busy status of an appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/appointmentstatus|4.0.1</t>
   </si>
   <si>
     <t>Request.status</t>
@@ -1353,11 +1356,14 @@
     <t>Appointment.participant</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>Participants in the appointment (at least 2: patient and healthcare service)</t>
+    <t>Participants in the appointment (at least 3: patient, location, healthcare service)</t>
   </si>
   <si>
     <t>List of participants involved in the appointment.</t>
@@ -1437,7 +1443,7 @@
 </t>
   </si>
   <si>
-    <t>Reference to the participant (Patient or HealthcareService)</t>
+    <t>Reference to the participant (Patient, Location or HealthcareService)</t>
   </si>
   <si>
     <t>A Person, Location/HealthcareService or Device that is participating in the appointment.</t>
@@ -1861,7 +1867,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.60546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -4521,9 +4527,11 @@
       <c r="X23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y23" s="2"/>
+      <c r="Y23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4556,27 +4564,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4602,10 +4610,10 @@
         <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4632,11 +4640,11 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4654,7 +4662,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4686,10 +4694,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4715,10 +4723,10 @@
         <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4745,11 +4753,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4767,7 +4775,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4785,10 +4793,10 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4799,10 +4807,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4828,13 +4836,13 @@
         <v>197</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4860,11 +4868,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4882,7 +4890,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4897,10 +4905,10 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4914,10 +4922,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4943,10 +4951,10 @@
         <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4977,7 +4985,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4995,7 +5003,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5013,13 +5021,13 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5027,10 +5035,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5056,10 +5064,10 @@
         <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5090,7 +5098,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5108,7 +5116,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5120,30 +5128,30 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5255,10 +5263,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5372,10 +5380,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5398,19 +5406,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5467,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5477,7 +5485,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5486,15 +5494,15 @@
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5606,10 +5614,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5723,10 +5731,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5752,23 +5760,23 @@
         <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>78</v>
@@ -5810,7 +5818,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5828,7 +5836,7 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5837,15 +5845,15 @@
         <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5871,13 +5879,13 @@
         <v>176</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5927,7 +5935,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5945,7 +5953,7 @@
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5954,15 +5962,15 @@
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5988,14 +5996,14 @@
         <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6044,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6062,7 +6070,7 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -6071,15 +6079,15 @@
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6105,14 +6113,14 @@
         <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6161,7 +6169,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6179,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6188,15 +6196,15 @@
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6219,19 +6227,19 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6280,7 +6288,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6298,7 +6306,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6307,15 +6315,15 @@
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6341,16 +6349,16 @@
         <v>176</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6399,7 +6407,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6417,7 +6425,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6426,15 +6434,15 @@
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6460,10 +6468,10 @@
         <v>197</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6493,10 +6501,10 @@
         <v>113</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6514,7 +6522,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6529,10 +6537,10 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
@@ -6541,15 +6549,15 @@
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6572,13 +6580,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6629,7 +6637,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6644,10 +6652,10 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6661,10 +6669,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6687,16 +6695,16 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6746,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6761,27 +6769,27 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6807,10 +6815,10 @@
         <v>176</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6861,7 +6869,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6879,24 +6887,24 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6919,13 +6927,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6976,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6991,16 +6999,16 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7008,10 +7016,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7034,13 +7042,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7091,7 +7099,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7106,27 +7114,27 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7149,13 +7157,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7206,7 +7214,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7221,27 +7229,27 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7264,13 +7272,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7321,7 +7329,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7336,13 +7344,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7353,10 +7361,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7379,13 +7387,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7436,7 +7444,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7454,7 +7462,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7468,10 +7476,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7494,16 +7502,16 @@
         <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7553,7 +7561,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7568,13 +7576,13 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7585,10 +7593,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7614,13 +7622,13 @@
         <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7670,7 +7678,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7685,27 +7693,27 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7731,10 +7739,10 @@
         <v>176</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7785,7 +7793,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7803,28 +7811,28 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7843,13 +7851,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7900,7 +7908,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7915,10 +7923,10 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7932,10 +7940,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7943,7 +7951,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>134</v>
+        <v>433</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>80</v>
@@ -7958,13 +7966,13 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8015,7 +8023,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>89</v>
@@ -8027,30 +8035,30 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8162,10 +8170,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8279,14 +8287,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8308,10 +8316,10 @@
         <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>163</v>
@@ -8366,7 +8374,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8398,10 +8406,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8427,13 +8435,13 @@
         <v>197</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8462,10 +8470,10 @@
         <v>202</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8483,7 +8491,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8501,7 +8509,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>180</v>
@@ -8510,15 +8518,15 @@
         <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8541,13 +8549,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8598,7 +8606,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8616,24 +8624,24 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8659,10 +8667,10 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8692,10 +8700,10 @@
         <v>191</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8713,7 +8721,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8731,10 +8739,10 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8745,10 +8753,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8774,10 +8782,10 @@
         <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8808,7 +8816,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8826,7 +8834,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -8844,24 +8852,24 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8887,10 +8895,10 @@
         <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8941,7 +8949,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8973,10 +8981,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9002,13 +9010,13 @@
         <v>226</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9058,7 +9066,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9073,10 +9081,10 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
@@ -9085,7 +9093,7 @@
         <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
